--- a/tspi/ciclo-2/logt1/20106381.xlsx
+++ b/tspi/ciclo-2/logt1/20106381.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -71,12 +71,6 @@
   </si>
   <si>
     <t>Presentar al equipo de la herramienta Redmine.</t>
-  </si>
-  <si>
-    <t>10/14/2014</t>
-  </si>
-  <si>
-    <t>Realizar la minuta #3</t>
   </si>
 </sst>
 </file>
@@ -558,7 +552,7 @@
   <dimension ref="A1:AMK10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,28 +718,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.64236111111111105</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.66805555555555562</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <f>((HOUR(C10)-HOUR(B10))*60)+(MINUTE(C10)-MINUTE(B10))-D10</f>
-        <v>37</v>
-      </c>
-      <c r="F10" s="14">
-        <v>32</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>19</v>
-      </c>
+      <c r="F10" s="14"/>
+      <c r="H10" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="6">
